--- a/Testiranje odluka i pokrivenost.xlsx
+++ b/Testiranje odluka i pokrivenost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Formalne-Metode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FM vjezbe\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0E770-D0AA-4750-8046-00D3AB10F69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881F9995-0D09-4E32-9A7C-01C8EBBBC51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E6FF181-3321-4E70-87AA-D77B39520483}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>poziv funkcije ErrorPoruka()</t>
   </si>
   <si>
-    <t>Da bi se pokrile sve linije koda potrebno je izvršiti sve navedene testove.</t>
+    <t>Da bi se pokrile sve linije koda potrebno je izvršiti sve navedene testne slučajeve.</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A75FD0E-7532-42F0-A3D6-97A8C9B6E852}">
   <dimension ref="Q4:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
